--- a/Assignment 2 Workspace/to-do.xlsx
+++ b/Assignment 2 Workspace/to-do.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="900" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Status</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Interrupt priorities</t>
+  </si>
+  <si>
+    <t>Temp_treshold calibration in climb mode</t>
   </si>
 </sst>
 </file>
@@ -525,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,75 +590,75 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,10 +666,10 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -677,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,13 +688,10 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,7 +702,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,10 +724,10 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,7 +738,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,13 +746,13 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -757,40 +760,40 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,7 +801,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
         <v>39</v>
@@ -806,29 +809,32 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,35 +842,43 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E26">
+  <autoFilter ref="A1:E27">
     <sortState ref="A2:E28">
       <sortCondition ref="B1:B25"/>
     </sortState>

--- a/Assignment 2 Workspace/to-do.xlsx
+++ b/Assignment 2 Workspace/to-do.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1560" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$30</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Status</t>
   </si>
@@ -123,9 +124,6 @@
     <t>clear interrupt pending before enabling interrupt</t>
   </si>
   <si>
-    <t>EINT0 interrupt for SW3</t>
-  </si>
-  <si>
     <t>interrupt for temperature rest trigger</t>
   </si>
   <si>
@@ -172,6 +170,12 @@
   </si>
   <si>
     <t>Temp_treshold calibration in climb mode</t>
+  </si>
+  <si>
+    <t>EINT0 interrupt for SW3 (change jumper pin before testing)</t>
+  </si>
+  <si>
+    <t>Uncomment code and change def of rxbuf</t>
   </si>
 </sst>
 </file>
@@ -532,7 +536,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -563,7 +567,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -572,12 +576,12 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -586,225 +590,234 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,37 +825,40 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,37 +866,37 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E27">
-    <sortState ref="A2:E28">
-      <sortCondition ref="B1:B25"/>
+  <autoFilter ref="A1:E30">
+    <sortState ref="A2:E30">
+      <sortCondition ref="B1:B30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignment 2 Workspace/to-do.xlsx
+++ b/Assignment 2 Workspace/to-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$30</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>Status</t>
   </si>
@@ -157,9 +156,6 @@
     <t>To be tested</t>
   </si>
   <si>
-    <t>Debug</t>
-  </si>
-  <si>
     <t>Try with different jumper settings on J26 for fast_temp_read</t>
   </si>
   <si>
@@ -176,6 +172,18 @@
   </si>
   <si>
     <t>Uncomment code and change def of rxbuf</t>
+  </si>
+  <si>
+    <t>To be debugged</t>
+  </si>
+  <si>
+    <t>Not responding to sw3 presses</t>
+  </si>
+  <si>
+    <t>Not really working??</t>
+  </si>
+  <si>
+    <t>To be Debug</t>
   </si>
 </sst>
 </file>
@@ -536,12 +544,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="86" bestFit="1" customWidth="1"/>
@@ -567,7 +575,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -581,7 +589,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -590,7 +598,10 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,7 +612,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,10 +628,13 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -629,12 +643,12 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -646,7 +660,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,7 +676,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -682,7 +696,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,7 +904,7 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment 2 Workspace/to-do.xlsx
+++ b/Assignment 2 Workspace/to-do.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3870" yWindow="105" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$40</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
   <si>
     <t>Status</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Music enhancement</t>
   </si>
   <si>
-    <t>To be tested</t>
-  </si>
-  <si>
     <t>Try with different jumper settings on J26 for fast_temp_read</t>
   </si>
   <si>
@@ -174,16 +171,63 @@
     <t>Uncomment code and change def of rxbuf</t>
   </si>
   <si>
-    <t>To be debugged</t>
-  </si>
-  <si>
     <t>Not responding to sw3 presses</t>
   </si>
   <si>
     <t>Not really working??</t>
   </si>
   <si>
-    <t>To be Debug</t>
+    <t>Deconflict speaker and BLUE_RGB</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Changing of pins</t>
+  </si>
+  <si>
+    <t>Temperature section updates</t>
+  </si>
+  <si>
+    <t>UART Interrupt Enhancement</t>
+  </si>
+  <si>
+    <t>Check that flowcharts tally with code after code updates</t>
+  </si>
+  <si>
+    <t>Non crucial</t>
+  </si>
+  <si>
+    <t>Check that all requirements from wiki are met</t>
+  </si>
+  <si>
+    <t>Update EINT0</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>Finish UART, refer to wiki requirements</t>
+  </si>
+  <si>
+    <t>-Climb: The accelerometer, temperature and light sensor readings should be sent to FiTrackX once every 5 seconds. (done, refer to this as sample for emer mode. for emer mode, dont need to check flags, turning off only works for climb mode)
+-When FitNUS first enters CLIMB Mode, the message "CLIMB mode" should be sent to FiTrackX once.
+-Emergency: Every 5 seconds, FitNUS should send the accelerometer and temperature sensor readings as well as the time elapsed since entering EMERGENCY Mode to FiTrackX.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Flowcharts update</t>
+  </si>
+  <si>
+    <t>Check that all todos are added to report</t>
   </si>
 </sst>
 </file>
@@ -540,377 +584,651 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
+      <c r="F40" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E30">
-    <sortState ref="A2:E30">
-      <sortCondition ref="B1:B30"/>
+  <autoFilter ref="A1:G40">
+    <sortState ref="A2:G39">
+      <sortCondition ref="C1:C39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignment 2 Workspace/to-do.xlsx
+++ b/Assignment 2 Workspace/to-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="105" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="4200" yWindow="105" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/Assignment 2 Workspace/to-do.xlsx
+++ b/Assignment 2 Workspace/to-do.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="105" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="4530" yWindow="105" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
   <si>
     <t>Status</t>
   </si>
@@ -210,24 +210,24 @@
     <t>Finish UART, refer to wiki requirements</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Flowcharts update</t>
+  </si>
+  <si>
+    <t>Check that all todos are added to report</t>
+  </si>
+  <si>
     <t>-Climb: The accelerometer, temperature and light sensor readings should be sent to FiTrackX once every 5 seconds. (done, refer to this as sample for emer mode. for emer mode, dont need to check flags, turning off only works for climb mode)
--When FitNUS first enters CLIMB Mode, the message "CLIMB mode" should be sent to FiTrackX once.
--Emergency: Every 5 seconds, FitNUS should send the accelerometer and temperature sensor readings as well as the time elapsed since entering EMERGENCY Mode to FiTrackX.</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Flowcharts update</t>
-  </si>
-  <si>
-    <t>Check that all todos are added to report</t>
+-When FitNUS first enters CLIMB Mode, the message "CLIMB mode" should be sent to FiTrackX once. (done)
+-Emergency: Every 5 seconds, FitNUS should send the accelerometer and temperature sensor readings as well as the time elapsed since entering EMERGENCY Mode to FiTrackX. (done)</t>
   </si>
 </sst>
 </file>
@@ -586,9 +586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
         <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -627,36 +627,39 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -664,219 +667,216 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -885,15 +885,15 @@
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -902,127 +902,130 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -1031,29 +1034,26 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1062,12 +1062,15 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -1076,26 +1079,26 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -1104,26 +1107,26 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>22</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1132,103 +1135,103 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
         <v>27</v>
       </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G40">
-    <sortState ref="A2:G39">
-      <sortCondition ref="C1:C39"/>
+    <sortState ref="A2:G40">
+      <sortCondition ref="B1:B40"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
